--- a/data/trans_orig/P6516-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P6516-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2295CE20-831C-4F0A-9DBB-3286D8F363BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{ACD404D6-1A1D-43C8-BC6F-9F455D94C35E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{3C71C9B7-8A01-48FD-B77C-D8215E099623}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{680E5F60-E9CE-48C4-86B1-0E277E26B9C4}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="254">
   <si>
     <t>Población según tener que relacionarse con gente que no son compañeros durante las tareas de su trabajo en 2007 (Tasa respuesta: 43,05%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>46,38%</t>
   </si>
   <si>
-    <t>38,83%</t>
-  </si>
-  <si>
-    <t>54,38%</t>
+    <t>38,3%</t>
+  </si>
+  <si>
+    <t>54,35%</t>
   </si>
   <si>
     <t>17,52%</t>
   </si>
   <si>
-    <t>11,85%</t>
-  </si>
-  <si>
-    <t>24,73%</t>
+    <t>11,66%</t>
+  </si>
+  <si>
+    <t>25,33%</t>
   </si>
   <si>
     <t>33,58%</t>
   </si>
   <si>
-    <t>28,93%</t>
-  </si>
-  <si>
-    <t>38,94%</t>
+    <t>28,05%</t>
+  </si>
+  <si>
+    <t>39,07%</t>
   </si>
   <si>
     <t>Algunas veces</t>
@@ -104,28 +104,28 @@
     <t>10,52%</t>
   </si>
   <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>15,63%</t>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>15,8%</t>
   </si>
   <si>
     <t>11,78%</t>
   </si>
   <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>17,91%</t>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>18,16%</t>
   </si>
   <si>
     <t>11,08%</t>
   </si>
   <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>14,99%</t>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>14,8%</t>
   </si>
   <si>
     <t>Muchas veces</t>
@@ -134,679 +134,667 @@
     <t>13,16%</t>
   </si>
   <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>18,83%</t>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>19,62%</t>
   </si>
   <si>
     <t>6,87%</t>
   </si>
   <si>
-    <t>3,61%</t>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>11,57%</t>
+  </si>
+  <si>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>14,03%</t>
+  </si>
+  <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>29,95%</t>
+  </si>
+  <si>
+    <t>23,06%</t>
+  </si>
+  <si>
+    <t>37,43%</t>
+  </si>
+  <si>
+    <t>63,83%</t>
+  </si>
+  <si>
+    <t>55,34%</t>
+  </si>
+  <si>
+    <t>71,38%</t>
+  </si>
+  <si>
+    <t>44,98%</t>
+  </si>
+  <si>
+    <t>39,46%</t>
+  </si>
+  <si>
+    <t>51,09%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>28,04%</t>
+  </si>
+  <si>
+    <t>24,51%</t>
+  </si>
+  <si>
+    <t>32,47%</t>
+  </si>
+  <si>
+    <t>25,86%</t>
+  </si>
+  <si>
+    <t>20,93%</t>
+  </si>
+  <si>
+    <t>30,8%</t>
+  </si>
+  <si>
+    <t>27,21%</t>
+  </si>
+  <si>
+    <t>24,41%</t>
+  </si>
+  <si>
+    <t>30,61%</t>
+  </si>
+  <si>
+    <t>17,15%</t>
+  </si>
+  <si>
+    <t>14,13%</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>15,66%</t>
+  </si>
+  <si>
+    <t>15,06%</t>
+  </si>
+  <si>
+    <t>12,83%</t>
+  </si>
+  <si>
+    <t>17,78%</t>
+  </si>
+  <si>
+    <t>18,17%</t>
+  </si>
+  <si>
+    <t>14,85%</t>
+  </si>
+  <si>
+    <t>21,67%</t>
+  </si>
+  <si>
+    <t>13,37%</t>
+  </si>
+  <si>
+    <t>9,93%</t>
+  </si>
+  <si>
+    <t>17,76%</t>
+  </si>
+  <si>
+    <t>16,35%</t>
+  </si>
+  <si>
+    <t>13,81%</t>
+  </si>
+  <si>
+    <t>18,99%</t>
+  </si>
+  <si>
+    <t>36,63%</t>
+  </si>
+  <si>
+    <t>32,74%</t>
+  </si>
+  <si>
+    <t>41,59%</t>
+  </si>
+  <si>
+    <t>49,12%</t>
+  </si>
+  <si>
+    <t>43,86%</t>
+  </si>
+  <si>
+    <t>54,83%</t>
+  </si>
+  <si>
+    <t>41,38%</t>
+  </si>
+  <si>
+    <t>38,0%</t>
+  </si>
+  <si>
+    <t>44,92%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>28,95%</t>
+  </si>
+  <si>
+    <t>25,21%</t>
+  </si>
+  <si>
+    <t>32,63%</t>
+  </si>
+  <si>
+    <t>26,78%</t>
+  </si>
+  <si>
+    <t>21,71%</t>
+  </si>
+  <si>
+    <t>32,2%</t>
+  </si>
+  <si>
+    <t>28,19%</t>
+  </si>
+  <si>
+    <t>25,12%</t>
+  </si>
+  <si>
+    <t>31,29%</t>
+  </si>
+  <si>
+    <t>12,41%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>15,17%</t>
+  </si>
+  <si>
+    <t>13,72%</t>
+  </si>
+  <si>
+    <t>18,39%</t>
+  </si>
+  <si>
+    <t>12,87%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>15,23%</t>
+  </si>
+  <si>
+    <t>19,69%</t>
+  </si>
+  <si>
+    <t>16,65%</t>
+  </si>
+  <si>
+    <t>23,53%</t>
+  </si>
+  <si>
+    <t>13,84%</t>
+  </si>
+  <si>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>18,35%</t>
+  </si>
+  <si>
+    <t>17,65%</t>
+  </si>
+  <si>
+    <t>15,29%</t>
+  </si>
+  <si>
+    <t>20,52%</t>
+  </si>
+  <si>
+    <t>38,96%</t>
+  </si>
+  <si>
+    <t>35,07%</t>
+  </si>
+  <si>
+    <t>43,16%</t>
+  </si>
+  <si>
+    <t>45,66%</t>
+  </si>
+  <si>
+    <t>39,84%</t>
+  </si>
+  <si>
+    <t>51,81%</t>
+  </si>
+  <si>
+    <t>41,3%</t>
+  </si>
+  <si>
+    <t>44,53%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>29,82%</t>
+  </si>
+  <si>
+    <t>24,95%</t>
+  </si>
+  <si>
+    <t>34,18%</t>
+  </si>
+  <si>
+    <t>28,17%</t>
+  </si>
+  <si>
+    <t>21,37%</t>
+  </si>
+  <si>
+    <t>35,57%</t>
+  </si>
+  <si>
+    <t>29,36%</t>
+  </si>
+  <si>
+    <t>25,98%</t>
+  </si>
+  <si>
+    <t>33,77%</t>
+  </si>
+  <si>
+    <t>15,11%</t>
+  </si>
+  <si>
+    <t>11,9%</t>
+  </si>
+  <si>
+    <t>18,63%</t>
+  </si>
+  <si>
+    <t>14,29%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>20,87%</t>
+  </si>
+  <si>
+    <t>14,88%</t>
   </si>
   <si>
     <t>11,98%</t>
   </si>
   <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>14,45%</t>
-  </si>
-  <si>
-    <t>Siempre</t>
-  </si>
-  <si>
-    <t>29,95%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>37,67%</t>
-  </si>
-  <si>
-    <t>63,83%</t>
-  </si>
-  <si>
-    <t>55,19%</t>
-  </si>
-  <si>
-    <t>71,84%</t>
-  </si>
-  <si>
-    <t>44,98%</t>
-  </si>
-  <si>
-    <t>39,3%</t>
-  </si>
-  <si>
-    <t>50,02%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>28,04%</t>
-  </si>
-  <si>
-    <t>24,41%</t>
-  </si>
-  <si>
-    <t>32,02%</t>
-  </si>
-  <si>
-    <t>25,86%</t>
-  </si>
-  <si>
-    <t>20,72%</t>
-  </si>
-  <si>
-    <t>30,61%</t>
-  </si>
-  <si>
-    <t>27,21%</t>
-  </si>
-  <si>
-    <t>24,35%</t>
-  </si>
-  <si>
-    <t>30,47%</t>
-  </si>
-  <si>
-    <t>17,15%</t>
-  </si>
-  <si>
-    <t>14,12%</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>11,66%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>15,54%</t>
-  </si>
-  <si>
-    <t>15,06%</t>
+    <t>18,32%</t>
+  </si>
+  <si>
+    <t>17,42%</t>
+  </si>
+  <si>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>21,92%</t>
+  </si>
+  <si>
+    <t>15,97%</t>
+  </si>
+  <si>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>21,54%</t>
+  </si>
+  <si>
+    <t>17,02%</t>
+  </si>
+  <si>
+    <t>13,83%</t>
+  </si>
+  <si>
+    <t>20,4%</t>
+  </si>
+  <si>
+    <t>37,65%</t>
+  </si>
+  <si>
+    <t>32,93%</t>
+  </si>
+  <si>
+    <t>42,51%</t>
+  </si>
+  <si>
+    <t>41,56%</t>
+  </si>
+  <si>
+    <t>34,2%</t>
+  </si>
+  <si>
+    <t>49,56%</t>
+  </si>
+  <si>
+    <t>38,74%</t>
+  </si>
+  <si>
+    <t>34,56%</t>
+  </si>
+  <si>
+    <t>42,41%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>24,05%</t>
+  </si>
+  <si>
+    <t>31,0%</t>
+  </si>
+  <si>
+    <t>18,36%</t>
+  </si>
+  <si>
+    <t>10,55%</t>
+  </si>
+  <si>
+    <t>28,9%</t>
+  </si>
+  <si>
+    <t>22,45%</t>
+  </si>
+  <si>
+    <t>17,57%</t>
+  </si>
+  <si>
+    <t>28,36%</t>
+  </si>
+  <si>
+    <t>19,95%</t>
+  </si>
+  <si>
+    <t>14,24%</t>
+  </si>
+  <si>
+    <t>26,22%</t>
+  </si>
+  <si>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>23,61%</t>
+  </si>
+  <si>
+    <t>18,05%</t>
+  </si>
+  <si>
+    <t>13,06%</t>
+  </si>
+  <si>
+    <t>23,02%</t>
+  </si>
+  <si>
+    <t>17,96%</t>
+  </si>
+  <si>
+    <t>12,42%</t>
+  </si>
+  <si>
+    <t>23,91%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>19,89%</t>
+  </si>
+  <si>
+    <t>15,38%</t>
+  </si>
+  <si>
+    <t>11,25%</t>
+  </si>
+  <si>
+    <t>20,14%</t>
+  </si>
+  <si>
+    <t>38,03%</t>
+  </si>
+  <si>
+    <t>30,55%</t>
+  </si>
+  <si>
+    <t>45,91%</t>
+  </si>
+  <si>
+    <t>59,6%</t>
+  </si>
+  <si>
+    <t>47,8%</t>
+  </si>
+  <si>
+    <t>71,43%</t>
+  </si>
+  <si>
+    <t>44,12%</t>
+  </si>
+  <si>
+    <t>37,94%</t>
+  </si>
+  <si>
+    <t>50,88%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>16,3%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>71,89%</t>
+  </si>
+  <si>
+    <t>27,11%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>20,82%</t>
+  </si>
+  <si>
+    <t>57,77%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>19,35%</t>
+  </si>
+  <si>
+    <t>71,01%</t>
+  </si>
+  <si>
+    <t>21,97%</t>
+  </si>
+  <si>
+    <t>72,7%</t>
+  </si>
+  <si>
+    <t>20,45%</t>
+  </si>
+  <si>
+    <t>56,64%</t>
+  </si>
+  <si>
+    <t>64,35%</t>
+  </si>
+  <si>
+    <t>18,56%</t>
+  </si>
+  <si>
+    <t>50,91%</t>
+  </si>
+  <si>
+    <t>58,73%</t>
+  </si>
+  <si>
+    <t>22,43%</t>
+  </si>
+  <si>
+    <t>89,73%</t>
+  </si>
+  <si>
+    <t>30,05%</t>
+  </si>
+  <si>
+    <t>27,88%</t>
+  </si>
+  <si>
+    <t>32,28%</t>
+  </si>
+  <si>
+    <t>24,9%</t>
+  </si>
+  <si>
+    <t>22,33%</t>
+  </si>
+  <si>
+    <t>27,84%</t>
+  </si>
+  <si>
+    <t>28,25%</t>
+  </si>
+  <si>
+    <t>26,5%</t>
+  </si>
+  <si>
+    <t>29,85%</t>
+  </si>
+  <si>
+    <t>13,34%</t>
+  </si>
+  <si>
+    <t>16,61%</t>
+  </si>
+  <si>
+    <t>12,78%</t>
+  </si>
+  <si>
+    <t>10,56%</t>
+  </si>
+  <si>
+    <t>14,95%</t>
   </si>
   <si>
     <t>12,86%</t>
   </si>
   <si>
-    <t>17,62%</t>
-  </si>
-  <si>
-    <t>18,17%</t>
-  </si>
-  <si>
-    <t>21,66%</t>
-  </si>
-  <si>
-    <t>13,37%</t>
-  </si>
-  <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>17,63%</t>
-  </si>
-  <si>
-    <t>16,35%</t>
-  </si>
-  <si>
-    <t>14,06%</t>
-  </si>
-  <si>
-    <t>18,94%</t>
-  </si>
-  <si>
-    <t>36,63%</t>
-  </si>
-  <si>
-    <t>32,73%</t>
-  </si>
-  <si>
-    <t>41,18%</t>
-  </si>
-  <si>
-    <t>49,12%</t>
-  </si>
-  <si>
-    <t>42,89%</t>
-  </si>
-  <si>
-    <t>54,24%</t>
-  </si>
-  <si>
-    <t>41,38%</t>
-  </si>
-  <si>
-    <t>38,18%</t>
-  </si>
-  <si>
-    <t>44,71%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>28,95%</t>
-  </si>
-  <si>
-    <t>25,2%</t>
-  </si>
-  <si>
-    <t>32,82%</t>
-  </si>
-  <si>
-    <t>26,78%</t>
-  </si>
-  <si>
-    <t>21,67%</t>
-  </si>
-  <si>
-    <t>32,03%</t>
-  </si>
-  <si>
-    <t>28,19%</t>
-  </si>
-  <si>
-    <t>25,22%</t>
-  </si>
-  <si>
-    <t>31,37%</t>
-  </si>
-  <si>
-    <t>12,41%</t>
-  </si>
-  <si>
-    <t>9,97%</t>
-  </si>
-  <si>
-    <t>15,2%</t>
-  </si>
-  <si>
-    <t>13,72%</t>
-  </si>
-  <si>
-    <t>10,01%</t>
-  </si>
-  <si>
-    <t>18,2%</t>
-  </si>
-  <si>
-    <t>12,87%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>15,52%</t>
-  </si>
-  <si>
-    <t>19,69%</t>
-  </si>
-  <si>
-    <t>16,55%</t>
-  </si>
-  <si>
-    <t>23,28%</t>
-  </si>
-  <si>
-    <t>13,84%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>18,01%</t>
-  </si>
-  <si>
-    <t>17,65%</t>
-  </si>
-  <si>
-    <t>15,22%</t>
-  </si>
-  <si>
-    <t>20,39%</t>
-  </si>
-  <si>
-    <t>38,96%</t>
-  </si>
-  <si>
-    <t>34,88%</t>
-  </si>
-  <si>
-    <t>43,64%</t>
-  </si>
-  <si>
-    <t>45,66%</t>
-  </si>
-  <si>
-    <t>39,38%</t>
-  </si>
-  <si>
-    <t>50,71%</t>
-  </si>
-  <si>
-    <t>41,3%</t>
-  </si>
-  <si>
-    <t>37,71%</t>
-  </si>
-  <si>
-    <t>44,69%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>29,82%</t>
-  </si>
-  <si>
-    <t>25,27%</t>
-  </si>
-  <si>
-    <t>34,28%</t>
-  </si>
-  <si>
-    <t>28,17%</t>
-  </si>
-  <si>
-    <t>21,36%</t>
-  </si>
-  <si>
-    <t>36,51%</t>
-  </si>
-  <si>
-    <t>29,36%</t>
-  </si>
-  <si>
-    <t>25,69%</t>
-  </si>
-  <si>
-    <t>33,02%</t>
-  </si>
-  <si>
-    <t>15,11%</t>
-  </si>
-  <si>
-    <t>11,94%</t>
-  </si>
-  <si>
-    <t>18,9%</t>
-  </si>
-  <si>
-    <t>14,29%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>20,96%</t>
-  </si>
-  <si>
-    <t>14,88%</t>
-  </si>
-  <si>
-    <t>12,2%</t>
-  </si>
-  <si>
-    <t>18,09%</t>
-  </si>
-  <si>
-    <t>17,42%</t>
-  </si>
-  <si>
-    <t>14,04%</t>
-  </si>
-  <si>
-    <t>21,57%</t>
-  </si>
-  <si>
-    <t>15,97%</t>
-  </si>
-  <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>21,74%</t>
-  </si>
-  <si>
-    <t>17,02%</t>
-  </si>
-  <si>
-    <t>14,01%</t>
-  </si>
-  <si>
-    <t>20,08%</t>
-  </si>
-  <si>
-    <t>37,65%</t>
-  </si>
-  <si>
-    <t>33,56%</t>
-  </si>
-  <si>
-    <t>42,31%</t>
-  </si>
-  <si>
-    <t>41,56%</t>
-  </si>
-  <si>
-    <t>33,65%</t>
-  </si>
-  <si>
-    <t>48,99%</t>
-  </si>
-  <si>
-    <t>38,74%</t>
-  </si>
-  <si>
-    <t>34,81%</t>
-  </si>
-  <si>
-    <t>42,73%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>24,05%</t>
-  </si>
-  <si>
-    <t>18,34%</t>
-  </si>
-  <si>
-    <t>31,49%</t>
-  </si>
-  <si>
-    <t>18,36%</t>
-  </si>
-  <si>
-    <t>10,46%</t>
-  </si>
-  <si>
-    <t>30,74%</t>
-  </si>
-  <si>
-    <t>22,45%</t>
-  </si>
-  <si>
-    <t>17,45%</t>
-  </si>
-  <si>
-    <t>28,57%</t>
-  </si>
-  <si>
-    <t>19,95%</t>
-  </si>
-  <si>
-    <t>13,87%</t>
-  </si>
-  <si>
-    <t>26,98%</t>
-  </si>
-  <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>23,69%</t>
-  </si>
-  <si>
-    <t>18,05%</t>
-  </si>
-  <si>
-    <t>13,35%</t>
-  </si>
-  <si>
-    <t>23,26%</t>
-  </si>
-  <si>
-    <t>17,96%</t>
-  </si>
-  <si>
-    <t>12,52%</t>
-  </si>
-  <si>
-    <t>24,47%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>19,99%</t>
-  </si>
-  <si>
-    <t>15,38%</t>
-  </si>
-  <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>20,76%</t>
-  </si>
-  <si>
-    <t>38,03%</t>
-  </si>
-  <si>
-    <t>30,81%</t>
-  </si>
-  <si>
-    <t>46,22%</t>
-  </si>
-  <si>
-    <t>59,6%</t>
-  </si>
-  <si>
-    <t>46,84%</t>
-  </si>
-  <si>
-    <t>71,96%</t>
-  </si>
-  <si>
-    <t>44,12%</t>
-  </si>
-  <si>
-    <t>37,94%</t>
-  </si>
-  <si>
-    <t>50,95%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>16,3%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>67,35%</t>
-  </si>
-  <si>
-    <t>27,11%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>20,82%</t>
-  </si>
-  <si>
-    <t>57,2%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>19,35%</t>
-  </si>
-  <si>
-    <t>82,65%</t>
-  </si>
-  <si>
-    <t>21,97%</t>
-  </si>
-  <si>
-    <t>72,7%</t>
-  </si>
-  <si>
-    <t>20,45%</t>
-  </si>
-  <si>
-    <t>56,1%</t>
-  </si>
-  <si>
-    <t>64,35%</t>
-  </si>
-  <si>
-    <t>17,56%</t>
-  </si>
-  <si>
-    <t>50,91%</t>
-  </si>
-  <si>
-    <t>58,73%</t>
-  </si>
-  <si>
-    <t>23,12%</t>
-  </si>
-  <si>
-    <t>90,51%</t>
-  </si>
-  <si>
-    <t>30,05%</t>
-  </si>
-  <si>
-    <t>27,97%</t>
-  </si>
-  <si>
-    <t>32,2%</t>
-  </si>
-  <si>
-    <t>24,9%</t>
-  </si>
-  <si>
-    <t>22,11%</t>
-  </si>
-  <si>
-    <t>27,79%</t>
-  </si>
-  <si>
-    <t>28,25%</t>
-  </si>
-  <si>
-    <t>26,51%</t>
-  </si>
-  <si>
-    <t>30,1%</t>
-  </si>
-  <si>
-    <t>14,85%</t>
-  </si>
-  <si>
-    <t>13,39%</t>
-  </si>
-  <si>
-    <t>16,69%</t>
-  </si>
-  <si>
-    <t>12,78%</t>
-  </si>
-  <si>
-    <t>10,63%</t>
-  </si>
-  <si>
-    <t>15,14%</t>
-  </si>
-  <si>
-    <t>14,13%</t>
-  </si>
-  <si>
-    <t>12,9%</t>
-  </si>
-  <si>
-    <t>15,56%</t>
+    <t>15,39%</t>
   </si>
   <si>
     <t>17,97%</t>
   </si>
   <si>
-    <t>16,15%</t>
-  </si>
-  <si>
-    <t>19,88%</t>
+    <t>16,21%</t>
+  </si>
+  <si>
+    <t>19,92%</t>
   </si>
   <si>
     <t>12,79%</t>
   </si>
   <si>
-    <t>10,78%</t>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>15,24%</t>
+  </si>
+  <si>
+    <t>16,16%</t>
   </si>
   <si>
     <t>14,9%</t>
   </si>
   <si>
-    <t>16,16%</t>
-  </si>
-  <si>
-    <t>17,7%</t>
+    <t>17,59%</t>
   </si>
   <si>
     <t>37,13%</t>
   </si>
   <si>
-    <t>34,9%</t>
-  </si>
-  <si>
-    <t>39,33%</t>
+    <t>34,73%</t>
+  </si>
+  <si>
+    <t>39,4%</t>
   </si>
   <si>
     <t>49,52%</t>
   </si>
   <si>
-    <t>46,47%</t>
-  </si>
-  <si>
-    <t>52,87%</t>
+    <t>46,43%</t>
+  </si>
+  <si>
+    <t>52,77%</t>
   </si>
   <si>
     <t>41,46%</t>
   </si>
   <si>
-    <t>39,76%</t>
-  </si>
-  <si>
-    <t>43,21%</t>
+    <t>39,7%</t>
+  </si>
+  <si>
+    <t>43,42%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1221,7 +1209,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{413D4743-9440-4841-B6E4-8E09A94AEB32}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26E0F4B4-0EC9-4C23-A3F3-F5A8D6E89C00}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1668,13 +1656,13 @@
         <v>39701</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>66</v>
       </c>
       <c r="M10" s="7">
         <v>127</v>
@@ -1683,13 +1671,13 @@
         <v>134979</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1704,10 +1692,10 @@
         <v>100970</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>29</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>71</v>
@@ -1928,10 +1916,10 @@
         <v>100</v>
       </c>
       <c r="K15" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="L15" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="M15" s="7">
         <v>110</v>
@@ -1940,13 +1928,13 @@
         <v>112209</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P15" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="P15" s="7" t="s">
+      <c r="Q15" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1961,13 +1949,13 @@
         <v>111771</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>108</v>
       </c>
       <c r="H16" s="7">
         <v>41</v>
@@ -1976,13 +1964,13 @@
         <v>42152</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>111</v>
       </c>
       <c r="M16" s="7">
         <v>152</v>
@@ -1991,13 +1979,13 @@
         <v>153923</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2012,13 +2000,13 @@
         <v>221114</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="H17" s="7">
         <v>132</v>
@@ -2027,13 +2015,13 @@
         <v>139046</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>120</v>
       </c>
       <c r="M17" s="7">
         <v>340</v>
@@ -2042,13 +2030,13 @@
         <v>360160</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2104,7 +2092,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2116,13 +2104,13 @@
         <v>130383</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="H19" s="7">
         <v>46</v>
@@ -2131,13 +2119,13 @@
         <v>47821</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="M19" s="7">
         <v>166</v>
@@ -2146,13 +2134,13 @@
         <v>178205</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2167,13 +2155,13 @@
         <v>66065</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="H20" s="7">
         <v>22</v>
@@ -2182,13 +2170,13 @@
         <v>24262</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="M20" s="7">
         <v>84</v>
@@ -2197,13 +2185,13 @@
         <v>90326</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2218,13 +2206,13 @@
         <v>76186</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="H21" s="7">
         <v>27</v>
@@ -2233,13 +2221,13 @@
         <v>27102</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="M21" s="7">
         <v>97</v>
@@ -2248,13 +2236,13 @@
         <v>103288</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2269,13 +2257,13 @@
         <v>164626</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="H22" s="7">
         <v>67</v>
@@ -2284,13 +2272,13 @@
         <v>70548</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="M22" s="7">
         <v>222</v>
@@ -2299,13 +2287,13 @@
         <v>235174</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2361,7 +2349,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2373,13 +2361,13 @@
         <v>39297</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>163</v>
+        <v>26</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="H24" s="7">
         <v>12</v>
@@ -2388,13 +2376,13 @@
         <v>11805</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="M24" s="7">
         <v>51</v>
@@ -2403,13 +2391,13 @@
         <v>51103</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2424,13 +2412,13 @@
         <v>32589</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="H25" s="7">
         <v>8</v>
@@ -2439,13 +2427,13 @@
         <v>8501</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="M25" s="7">
         <v>41</v>
@@ -2454,13 +2442,13 @@
         <v>41089</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2475,13 +2463,13 @@
         <v>29347</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="H26" s="7">
         <v>5</v>
@@ -2490,13 +2478,13 @@
         <v>5663</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="M26" s="7">
         <v>36</v>
@@ -2505,13 +2493,13 @@
         <v>35009</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2526,13 +2514,13 @@
         <v>62135</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="H27" s="7">
         <v>37</v>
@@ -2541,13 +2529,13 @@
         <v>38315</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="M27" s="7">
         <v>100</v>
@@ -2556,13 +2544,13 @@
         <v>100450</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2618,7 +2606,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>10</v>
@@ -2630,13 +2618,13 @@
         <v>821</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="H29" s="7">
         <v>1</v>
@@ -2645,13 +2633,13 @@
         <v>982</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="K29" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>203</v>
       </c>
       <c r="M29" s="7">
         <v>2</v>
@@ -2660,13 +2648,13 @@
         <v>1803</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2681,13 +2669,13 @@
         <v>0</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="H30" s="7">
         <v>0</v>
@@ -2696,13 +2684,13 @@
         <v>0</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="M30" s="7">
         <v>0</v>
@@ -2711,13 +2699,13 @@
         <v>0</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="P30" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2732,13 +2720,13 @@
         <v>975</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="H31" s="7">
         <v>1</v>
@@ -2747,13 +2735,13 @@
         <v>796</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="M31" s="7">
         <v>2</v>
@@ -2762,13 +2750,13 @@
         <v>1771</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2783,13 +2771,13 @@
         <v>3242</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="H32" s="7">
         <v>2</v>
@@ -2798,13 +2786,13 @@
         <v>1844</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="K32" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="L32" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>203</v>
       </c>
       <c r="M32" s="7">
         <v>5</v>
@@ -2813,13 +2801,13 @@
         <v>5085</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2887,13 +2875,13 @@
         <v>572486</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="H34" s="7">
         <v>239</v>
@@ -2902,13 +2890,13 @@
         <v>254878</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="M34" s="7">
         <v>782</v>
@@ -2917,13 +2905,13 @@
         <v>827363</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2938,13 +2926,13 @@
         <v>282935</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>231</v>
+        <v>70</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="H35" s="7">
         <v>120</v>
@@ -2953,13 +2941,13 @@
         <v>130824</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="M35" s="7">
         <v>397</v>
@@ -2968,13 +2956,13 @@
         <v>413760</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>237</v>
+        <v>62</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -2989,13 +2977,13 @@
         <v>342480</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="H36" s="7">
         <v>127</v>
@@ -3004,13 +2992,13 @@
         <v>130898</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="M36" s="7">
         <v>459</v>
@@ -3019,13 +3007,13 @@
         <v>473378</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>140</v>
+        <v>242</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3040,13 +3028,13 @@
         <v>707513</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="H37" s="7">
         <v>493</v>
@@ -3055,13 +3043,13 @@
         <v>506843</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="M37" s="7">
         <v>1165</v>
@@ -3070,13 +3058,13 @@
         <v>1214356</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3132,7 +3120,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P6516-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P6516-Edad-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ACD404D6-1A1D-43C8-BC6F-9F455D94C35E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1AB1AE09-D1C0-43D9-8091-77DEDC83F8DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{680E5F60-E9CE-48C4-86B1-0E277E26B9C4}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{ED674592-B76D-49D9-AA57-CA97D917970E}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="253">
   <si>
     <t>Población según tener que relacionarse con gente que no son compañeros durante las tareas de su trabajo en 2007 (Tasa respuesta: 43,05%)</t>
   </si>
@@ -74,727 +74,724 @@
     <t>46,38%</t>
   </si>
   <si>
-    <t>38,3%</t>
-  </si>
-  <si>
-    <t>54,35%</t>
+    <t>39,21%</t>
+  </si>
+  <si>
+    <t>54,14%</t>
   </si>
   <si>
     <t>17,52%</t>
   </si>
   <si>
+    <t>11,47%</t>
+  </si>
+  <si>
+    <t>24,66%</t>
+  </si>
+  <si>
+    <t>33,58%</t>
+  </si>
+  <si>
+    <t>28,55%</t>
+  </si>
+  <si>
+    <t>39,24%</t>
+  </si>
+  <si>
+    <t>Algunas veces</t>
+  </si>
+  <si>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>15,96%</t>
+  </si>
+  <si>
+    <t>11,78%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>18,62%</t>
+  </si>
+  <si>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>15,02%</t>
+  </si>
+  <si>
+    <t>Muchas veces</t>
+  </si>
+  <si>
+    <t>13,16%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>18,87%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>11,85%</t>
+  </si>
+  <si>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>14,58%</t>
+  </si>
+  <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>29,95%</t>
+  </si>
+  <si>
+    <t>23,4%</t>
+  </si>
+  <si>
+    <t>37,25%</t>
+  </si>
+  <si>
+    <t>63,83%</t>
+  </si>
+  <si>
+    <t>55,82%</t>
+  </si>
+  <si>
+    <t>72,02%</t>
+  </si>
+  <si>
+    <t>44,98%</t>
+  </si>
+  <si>
+    <t>39,74%</t>
+  </si>
+  <si>
+    <t>50,37%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>28,04%</t>
+  </si>
+  <si>
+    <t>23,77%</t>
+  </si>
+  <si>
+    <t>31,88%</t>
+  </si>
+  <si>
+    <t>25,86%</t>
+  </si>
+  <si>
+    <t>21,52%</t>
+  </si>
+  <si>
+    <t>31,04%</t>
+  </si>
+  <si>
+    <t>27,21%</t>
+  </si>
+  <si>
+    <t>24,41%</t>
+  </si>
+  <si>
+    <t>30,26%</t>
+  </si>
+  <si>
+    <t>17,15%</t>
+  </si>
+  <si>
+    <t>13,79%</t>
+  </si>
+  <si>
+    <t>20,42%</t>
+  </si>
+  <si>
     <t>11,66%</t>
   </si>
   <si>
-    <t>25,33%</t>
-  </si>
-  <si>
-    <t>33,58%</t>
-  </si>
-  <si>
-    <t>28,05%</t>
-  </si>
-  <si>
-    <t>39,07%</t>
-  </si>
-  <si>
-    <t>Algunas veces</t>
-  </si>
-  <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>15,8%</t>
-  </si>
-  <si>
-    <t>11,78%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>18,16%</t>
-  </si>
-  <si>
-    <t>11,08%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>14,8%</t>
-  </si>
-  <si>
-    <t>Muchas veces</t>
-  </si>
-  <si>
-    <t>13,16%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>19,62%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>11,57%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>14,03%</t>
-  </si>
-  <si>
-    <t>Siempre</t>
-  </si>
-  <si>
-    <t>29,95%</t>
-  </si>
-  <si>
-    <t>23,06%</t>
-  </si>
-  <si>
-    <t>37,43%</t>
-  </si>
-  <si>
-    <t>63,83%</t>
-  </si>
-  <si>
-    <t>55,34%</t>
-  </si>
-  <si>
-    <t>71,38%</t>
-  </si>
-  <si>
-    <t>44,98%</t>
-  </si>
-  <si>
-    <t>39,46%</t>
-  </si>
-  <si>
-    <t>51,09%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>28,04%</t>
-  </si>
-  <si>
-    <t>24,51%</t>
-  </si>
-  <si>
-    <t>32,47%</t>
-  </si>
-  <si>
-    <t>25,86%</t>
-  </si>
-  <si>
-    <t>20,93%</t>
-  </si>
-  <si>
-    <t>30,8%</t>
-  </si>
-  <si>
-    <t>27,21%</t>
-  </si>
-  <si>
-    <t>24,41%</t>
-  </si>
-  <si>
-    <t>30,61%</t>
-  </si>
-  <si>
-    <t>17,15%</t>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>15,77%</t>
+  </si>
+  <si>
+    <t>15,06%</t>
+  </si>
+  <si>
+    <t>12,78%</t>
+  </si>
+  <si>
+    <t>17,32%</t>
+  </si>
+  <si>
+    <t>18,17%</t>
+  </si>
+  <si>
+    <t>14,89%</t>
+  </si>
+  <si>
+    <t>21,68%</t>
+  </si>
+  <si>
+    <t>13,37%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>16,35%</t>
+  </si>
+  <si>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>18,91%</t>
+  </si>
+  <si>
+    <t>36,63%</t>
+  </si>
+  <si>
+    <t>32,83%</t>
+  </si>
+  <si>
+    <t>41,59%</t>
+  </si>
+  <si>
+    <t>49,12%</t>
+  </si>
+  <si>
+    <t>43,62%</t>
+  </si>
+  <si>
+    <t>54,29%</t>
+  </si>
+  <si>
+    <t>41,38%</t>
+  </si>
+  <si>
+    <t>38,08%</t>
+  </si>
+  <si>
+    <t>44,72%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>28,95%</t>
+  </si>
+  <si>
+    <t>25,24%</t>
+  </si>
+  <si>
+    <t>33,11%</t>
+  </si>
+  <si>
+    <t>26,78%</t>
+  </si>
+  <si>
+    <t>21,62%</t>
+  </si>
+  <si>
+    <t>32,18%</t>
+  </si>
+  <si>
+    <t>28,19%</t>
+  </si>
+  <si>
+    <t>25,06%</t>
+  </si>
+  <si>
+    <t>31,47%</t>
+  </si>
+  <si>
+    <t>12,41%</t>
+  </si>
+  <si>
+    <t>9,7%</t>
+  </si>
+  <si>
+    <t>15,2%</t>
+  </si>
+  <si>
+    <t>13,72%</t>
+  </si>
+  <si>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>18,23%</t>
+  </si>
+  <si>
+    <t>12,87%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>15,44%</t>
+  </si>
+  <si>
+    <t>19,69%</t>
+  </si>
+  <si>
+    <t>16,5%</t>
+  </si>
+  <si>
+    <t>23,12%</t>
+  </si>
+  <si>
+    <t>13,84%</t>
+  </si>
+  <si>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>17,65%</t>
+  </si>
+  <si>
+    <t>14,95%</t>
+  </si>
+  <si>
+    <t>20,19%</t>
+  </si>
+  <si>
+    <t>38,96%</t>
+  </si>
+  <si>
+    <t>34,5%</t>
+  </si>
+  <si>
+    <t>42,8%</t>
+  </si>
+  <si>
+    <t>45,66%</t>
+  </si>
+  <si>
+    <t>39,08%</t>
+  </si>
+  <si>
+    <t>51,12%</t>
+  </si>
+  <si>
+    <t>41,3%</t>
+  </si>
+  <si>
+    <t>37,8%</t>
+  </si>
+  <si>
+    <t>44,59%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>29,82%</t>
+  </si>
+  <si>
+    <t>25,63%</t>
+  </si>
+  <si>
+    <t>34,76%</t>
+  </si>
+  <si>
+    <t>28,17%</t>
+  </si>
+  <si>
+    <t>21,7%</t>
+  </si>
+  <si>
+    <t>35,71%</t>
+  </si>
+  <si>
+    <t>29,36%</t>
+  </si>
+  <si>
+    <t>25,59%</t>
+  </si>
+  <si>
+    <t>33,63%</t>
+  </si>
+  <si>
+    <t>15,11%</t>
+  </si>
+  <si>
+    <t>11,69%</t>
+  </si>
+  <si>
+    <t>18,9%</t>
+  </si>
+  <si>
+    <t>14,29%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>20,73%</t>
+  </si>
+  <si>
+    <t>14,88%</t>
+  </si>
+  <si>
+    <t>12,24%</t>
+  </si>
+  <si>
+    <t>17,42%</t>
+  </si>
+  <si>
+    <t>13,75%</t>
+  </si>
+  <si>
+    <t>21,38%</t>
+  </si>
+  <si>
+    <t>15,97%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>22,41%</t>
+  </si>
+  <si>
+    <t>17,02%</t>
+  </si>
+  <si>
+    <t>14,24%</t>
+  </si>
+  <si>
+    <t>20,5%</t>
+  </si>
+  <si>
+    <t>37,65%</t>
+  </si>
+  <si>
+    <t>33,16%</t>
+  </si>
+  <si>
+    <t>42,34%</t>
+  </si>
+  <si>
+    <t>41,56%</t>
+  </si>
+  <si>
+    <t>49,24%</t>
+  </si>
+  <si>
+    <t>38,74%</t>
+  </si>
+  <si>
+    <t>34,66%</t>
+  </si>
+  <si>
+    <t>43,26%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>24,05%</t>
+  </si>
+  <si>
+    <t>17,71%</t>
+  </si>
+  <si>
+    <t>30,54%</t>
+  </si>
+  <si>
+    <t>18,36%</t>
+  </si>
+  <si>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>30,23%</t>
+  </si>
+  <si>
+    <t>22,45%</t>
+  </si>
+  <si>
+    <t>17,33%</t>
+  </si>
+  <si>
+    <t>28,79%</t>
+  </si>
+  <si>
+    <t>19,95%</t>
+  </si>
+  <si>
+    <t>14,28%</t>
+  </si>
+  <si>
+    <t>26,53%</t>
+  </si>
+  <si>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>24,14%</t>
+  </si>
+  <si>
+    <t>18,05%</t>
+  </si>
+  <si>
+    <t>13,33%</t>
+  </si>
+  <si>
+    <t>23,49%</t>
+  </si>
+  <si>
+    <t>17,96%</t>
+  </si>
+  <si>
+    <t>12,98%</t>
+  </si>
+  <si>
+    <t>24,44%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>18,31%</t>
+  </si>
+  <si>
+    <t>15,38%</t>
+  </si>
+  <si>
+    <t>11,4%</t>
+  </si>
+  <si>
+    <t>38,03%</t>
+  </si>
+  <si>
+    <t>30,59%</t>
+  </si>
+  <si>
+    <t>46,22%</t>
+  </si>
+  <si>
+    <t>59,6%</t>
+  </si>
+  <si>
+    <t>46,72%</t>
+  </si>
+  <si>
+    <t>70,84%</t>
+  </si>
+  <si>
+    <t>44,12%</t>
+  </si>
+  <si>
+    <t>37,59%</t>
+  </si>
+  <si>
+    <t>50,24%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>16,3%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>67,35%</t>
+  </si>
+  <si>
+    <t>27,11%</t>
+  </si>
+  <si>
+    <t>78,73%</t>
+  </si>
+  <si>
+    <t>20,82%</t>
+  </si>
+  <si>
+    <t>57,44%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>19,35%</t>
+  </si>
+  <si>
+    <t>74,1%</t>
+  </si>
+  <si>
+    <t>21,97%</t>
+  </si>
+  <si>
+    <t>72,7%</t>
+  </si>
+  <si>
+    <t>20,45%</t>
+  </si>
+  <si>
+    <t>55,14%</t>
+  </si>
+  <si>
+    <t>64,35%</t>
+  </si>
+  <si>
+    <t>18,44%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>50,91%</t>
+  </si>
+  <si>
+    <t>58,73%</t>
+  </si>
+  <si>
+    <t>22,02%</t>
+  </si>
+  <si>
+    <t>88,68%</t>
+  </si>
+  <si>
+    <t>30,05%</t>
+  </si>
+  <si>
+    <t>27,8%</t>
+  </si>
+  <si>
+    <t>32,12%</t>
+  </si>
+  <si>
+    <t>24,9%</t>
+  </si>
+  <si>
+    <t>21,95%</t>
+  </si>
+  <si>
+    <t>27,43%</t>
+  </si>
+  <si>
+    <t>28,25%</t>
+  </si>
+  <si>
+    <t>26,59%</t>
+  </si>
+  <si>
+    <t>29,98%</t>
+  </si>
+  <si>
+    <t>14,85%</t>
+  </si>
+  <si>
+    <t>13,4%</t>
+  </si>
+  <si>
+    <t>16,64%</t>
+  </si>
+  <si>
+    <t>10,87%</t>
   </si>
   <si>
     <t>14,13%</t>
   </si>
   <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>15,66%</t>
-  </si>
-  <si>
-    <t>15,06%</t>
-  </si>
-  <si>
-    <t>12,83%</t>
-  </si>
-  <si>
-    <t>17,78%</t>
-  </si>
-  <si>
-    <t>18,17%</t>
-  </si>
-  <si>
-    <t>14,85%</t>
-  </si>
-  <si>
-    <t>21,67%</t>
-  </si>
-  <si>
-    <t>13,37%</t>
-  </si>
-  <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>17,76%</t>
-  </si>
-  <si>
-    <t>16,35%</t>
-  </si>
-  <si>
-    <t>13,81%</t>
-  </si>
-  <si>
-    <t>18,99%</t>
-  </si>
-  <si>
-    <t>36,63%</t>
-  </si>
-  <si>
-    <t>32,74%</t>
-  </si>
-  <si>
-    <t>41,59%</t>
-  </si>
-  <si>
-    <t>49,12%</t>
-  </si>
-  <si>
-    <t>43,86%</t>
-  </si>
-  <si>
-    <t>54,83%</t>
-  </si>
-  <si>
-    <t>41,38%</t>
-  </si>
-  <si>
-    <t>38,0%</t>
-  </si>
-  <si>
-    <t>44,92%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>28,95%</t>
-  </si>
-  <si>
-    <t>25,21%</t>
-  </si>
-  <si>
-    <t>32,63%</t>
-  </si>
-  <si>
-    <t>26,78%</t>
-  </si>
-  <si>
-    <t>21,71%</t>
-  </si>
-  <si>
-    <t>32,2%</t>
-  </si>
-  <si>
-    <t>28,19%</t>
-  </si>
-  <si>
-    <t>25,12%</t>
-  </si>
-  <si>
-    <t>31,29%</t>
-  </si>
-  <si>
-    <t>12,41%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>15,17%</t>
-  </si>
-  <si>
-    <t>13,72%</t>
-  </si>
-  <si>
-    <t>18,39%</t>
-  </si>
-  <si>
-    <t>12,87%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>15,23%</t>
-  </si>
-  <si>
-    <t>19,69%</t>
-  </si>
-  <si>
-    <t>16,65%</t>
-  </si>
-  <si>
-    <t>23,53%</t>
-  </si>
-  <si>
-    <t>13,84%</t>
-  </si>
-  <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>18,35%</t>
-  </si>
-  <si>
-    <t>17,65%</t>
-  </si>
-  <si>
-    <t>15,29%</t>
-  </si>
-  <si>
-    <t>20,52%</t>
-  </si>
-  <si>
-    <t>38,96%</t>
-  </si>
-  <si>
-    <t>35,07%</t>
-  </si>
-  <si>
-    <t>43,16%</t>
-  </si>
-  <si>
-    <t>45,66%</t>
-  </si>
-  <si>
-    <t>39,84%</t>
-  </si>
-  <si>
-    <t>51,81%</t>
-  </si>
-  <si>
-    <t>41,3%</t>
-  </si>
-  <si>
-    <t>44,53%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>29,82%</t>
-  </si>
-  <si>
-    <t>24,95%</t>
-  </si>
-  <si>
-    <t>34,18%</t>
-  </si>
-  <si>
-    <t>28,17%</t>
-  </si>
-  <si>
-    <t>21,37%</t>
-  </si>
-  <si>
-    <t>35,57%</t>
-  </si>
-  <si>
-    <t>29,36%</t>
-  </si>
-  <si>
-    <t>25,98%</t>
-  </si>
-  <si>
-    <t>33,77%</t>
-  </si>
-  <si>
-    <t>15,11%</t>
-  </si>
-  <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>18,63%</t>
-  </si>
-  <si>
-    <t>14,29%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>20,87%</t>
-  </si>
-  <si>
-    <t>14,88%</t>
-  </si>
-  <si>
-    <t>11,98%</t>
-  </si>
-  <si>
-    <t>18,32%</t>
-  </si>
-  <si>
-    <t>17,42%</t>
-  </si>
-  <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>21,92%</t>
-  </si>
-  <si>
-    <t>15,97%</t>
-  </si>
-  <si>
-    <t>11,05%</t>
-  </si>
-  <si>
-    <t>21,54%</t>
-  </si>
-  <si>
-    <t>17,02%</t>
-  </si>
-  <si>
-    <t>13,83%</t>
-  </si>
-  <si>
-    <t>20,4%</t>
-  </si>
-  <si>
-    <t>37,65%</t>
-  </si>
-  <si>
-    <t>32,93%</t>
-  </si>
-  <si>
-    <t>42,51%</t>
-  </si>
-  <si>
-    <t>41,56%</t>
-  </si>
-  <si>
-    <t>34,2%</t>
-  </si>
-  <si>
-    <t>49,56%</t>
-  </si>
-  <si>
-    <t>38,74%</t>
-  </si>
-  <si>
-    <t>34,56%</t>
-  </si>
-  <si>
-    <t>42,41%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>24,05%</t>
-  </si>
-  <si>
-    <t>31,0%</t>
-  </si>
-  <si>
-    <t>18,36%</t>
-  </si>
-  <si>
-    <t>10,55%</t>
-  </si>
-  <si>
-    <t>28,9%</t>
-  </si>
-  <si>
-    <t>22,45%</t>
-  </si>
-  <si>
-    <t>17,57%</t>
-  </si>
-  <si>
-    <t>28,36%</t>
-  </si>
-  <si>
-    <t>19,95%</t>
-  </si>
-  <si>
-    <t>14,24%</t>
-  </si>
-  <si>
-    <t>26,22%</t>
-  </si>
-  <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>23,61%</t>
-  </si>
-  <si>
-    <t>18,05%</t>
-  </si>
-  <si>
-    <t>13,06%</t>
-  </si>
-  <si>
-    <t>23,02%</t>
-  </si>
-  <si>
-    <t>17,96%</t>
-  </si>
-  <si>
-    <t>12,42%</t>
-  </si>
-  <si>
-    <t>23,91%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>19,89%</t>
-  </si>
-  <si>
-    <t>15,38%</t>
-  </si>
-  <si>
-    <t>11,25%</t>
-  </si>
-  <si>
-    <t>20,14%</t>
-  </si>
-  <si>
-    <t>38,03%</t>
-  </si>
-  <si>
-    <t>30,55%</t>
-  </si>
-  <si>
-    <t>45,91%</t>
-  </si>
-  <si>
-    <t>59,6%</t>
-  </si>
-  <si>
-    <t>47,8%</t>
-  </si>
-  <si>
-    <t>71,43%</t>
-  </si>
-  <si>
-    <t>44,12%</t>
-  </si>
-  <si>
-    <t>37,94%</t>
-  </si>
-  <si>
-    <t>50,88%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>16,3%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>71,89%</t>
-  </si>
-  <si>
-    <t>27,11%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>20,82%</t>
-  </si>
-  <si>
-    <t>57,77%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>19,35%</t>
-  </si>
-  <si>
-    <t>71,01%</t>
-  </si>
-  <si>
-    <t>21,97%</t>
-  </si>
-  <si>
-    <t>72,7%</t>
-  </si>
-  <si>
-    <t>20,45%</t>
-  </si>
-  <si>
-    <t>56,64%</t>
-  </si>
-  <si>
-    <t>64,35%</t>
-  </si>
-  <si>
-    <t>18,56%</t>
-  </si>
-  <si>
-    <t>50,91%</t>
-  </si>
-  <si>
-    <t>58,73%</t>
-  </si>
-  <si>
-    <t>22,43%</t>
-  </si>
-  <si>
-    <t>89,73%</t>
-  </si>
-  <si>
-    <t>30,05%</t>
-  </si>
-  <si>
-    <t>27,88%</t>
-  </si>
-  <si>
-    <t>32,28%</t>
-  </si>
-  <si>
-    <t>24,9%</t>
-  </si>
-  <si>
-    <t>22,33%</t>
-  </si>
-  <si>
-    <t>27,84%</t>
-  </si>
-  <si>
-    <t>28,25%</t>
-  </si>
-  <si>
-    <t>26,5%</t>
-  </si>
-  <si>
-    <t>29,85%</t>
-  </si>
-  <si>
-    <t>13,34%</t>
-  </si>
-  <si>
-    <t>16,61%</t>
-  </si>
-  <si>
-    <t>12,78%</t>
-  </si>
-  <si>
-    <t>10,56%</t>
-  </si>
-  <si>
-    <t>14,95%</t>
-  </si>
-  <si>
-    <t>12,86%</t>
-  </si>
-  <si>
-    <t>15,39%</t>
+    <t>15,48%</t>
   </si>
   <si>
     <t>17,97%</t>
   </si>
   <si>
-    <t>16,21%</t>
-  </si>
-  <si>
-    <t>19,92%</t>
+    <t>16,23%</t>
+  </si>
+  <si>
+    <t>19,85%</t>
   </si>
   <si>
     <t>12,79%</t>
   </si>
   <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>15,24%</t>
+    <t>10,97%</t>
+  </si>
+  <si>
+    <t>15,08%</t>
   </si>
   <si>
     <t>16,16%</t>
   </si>
   <si>
-    <t>14,9%</t>
-  </si>
-  <si>
-    <t>17,59%</t>
+    <t>14,81%</t>
+  </si>
+  <si>
+    <t>17,54%</t>
   </si>
   <si>
     <t>37,13%</t>
   </si>
   <si>
-    <t>34,73%</t>
-  </si>
-  <si>
-    <t>39,4%</t>
+    <t>34,74%</t>
+  </si>
+  <si>
+    <t>39,29%</t>
   </si>
   <si>
     <t>49,52%</t>
   </si>
   <si>
-    <t>46,43%</t>
-  </si>
-  <si>
-    <t>52,77%</t>
+    <t>46,29%</t>
+  </si>
+  <si>
+    <t>52,64%</t>
   </si>
   <si>
     <t>41,46%</t>
   </si>
   <si>
-    <t>39,7%</t>
-  </si>
-  <si>
-    <t>43,42%</t>
+    <t>39,69%</t>
+  </si>
+  <si>
+    <t>43,35%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1209,7 +1206,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26E0F4B4-0EC9-4C23-A3F3-F5A8D6E89C00}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9044F879-1937-4D13-A473-70B211952FCD}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1656,13 +1653,13 @@
         <v>39701</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>15</v>
+        <v>64</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M10" s="7">
         <v>127</v>
@@ -1671,13 +1668,13 @@
         <v>134979</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1692,13 +1689,13 @@
         <v>100970</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H11" s="7">
         <v>43</v>
@@ -1707,13 +1704,13 @@
         <v>45509</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="M11" s="7">
         <v>139</v>
@@ -1916,10 +1913,10 @@
         <v>100</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M15" s="7">
         <v>110</v>
@@ -1928,13 +1925,13 @@
         <v>112209</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1949,13 +1946,13 @@
         <v>111771</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H16" s="7">
         <v>41</v>
@@ -1964,13 +1961,13 @@
         <v>42152</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>110</v>
+        <v>26</v>
       </c>
       <c r="M16" s="7">
         <v>152</v>
@@ -2033,10 +2030,10 @@
         <v>120</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>85</v>
+        <v>121</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2092,7 +2089,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2104,13 +2101,13 @@
         <v>130383</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H19" s="7">
         <v>46</v>
@@ -2119,13 +2116,13 @@
         <v>47821</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="M19" s="7">
         <v>166</v>
@@ -2134,13 +2131,13 @@
         <v>178205</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2155,13 +2152,13 @@
         <v>66065</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H20" s="7">
         <v>22</v>
@@ -2170,13 +2167,13 @@
         <v>24262</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="M20" s="7">
         <v>84</v>
@@ -2185,13 +2182,13 @@
         <v>90326</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>140</v>
+        <v>70</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2275,10 +2272,10 @@
         <v>153</v>
       </c>
       <c r="K22" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>155</v>
       </c>
       <c r="M22" s="7">
         <v>222</v>
@@ -2287,13 +2284,13 @@
         <v>235174</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2349,7 +2346,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2361,10 +2358,10 @@
         <v>39297</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>26</v>
       </c>
       <c r="G24" s="7" t="s">
         <v>161</v>
@@ -2499,7 +2496,7 @@
         <v>184</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>185</v>
+        <v>149</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2514,13 +2511,13 @@
         <v>62135</v>
       </c>
       <c r="E27" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="F27" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="F27" s="7" t="s">
+      <c r="G27" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>188</v>
       </c>
       <c r="H27" s="7">
         <v>37</v>
@@ -2529,13 +2526,13 @@
         <v>38315</v>
       </c>
       <c r="J27" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="K27" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="K27" s="7" t="s">
+      <c r="L27" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>191</v>
       </c>
       <c r="M27" s="7">
         <v>100</v>
@@ -2544,13 +2541,13 @@
         <v>100450</v>
       </c>
       <c r="O27" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="P27" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="P27" s="7" t="s">
+      <c r="Q27" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2606,7 +2603,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>10</v>
@@ -2618,13 +2615,13 @@
         <v>821</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>198</v>
       </c>
       <c r="H29" s="7">
         <v>1</v>
@@ -2633,13 +2630,13 @@
         <v>982</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>200</v>
       </c>
       <c r="M29" s="7">
         <v>2</v>
@@ -2648,13 +2645,13 @@
         <v>1803</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>201</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2669,13 +2666,13 @@
         <v>0</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F30" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>204</v>
       </c>
       <c r="H30" s="7">
         <v>0</v>
@@ -2684,13 +2681,13 @@
         <v>0</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="M30" s="7">
         <v>0</v>
@@ -2699,13 +2696,13 @@
         <v>0</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2720,13 +2717,13 @@
         <v>975</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="G31" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>208</v>
       </c>
       <c r="H31" s="7">
         <v>1</v>
@@ -2735,13 +2732,13 @@
         <v>796</v>
       </c>
       <c r="J31" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="L31" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>210</v>
       </c>
       <c r="M31" s="7">
         <v>2</v>
@@ -2750,13 +2747,13 @@
         <v>1771</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q31" s="7" t="s">
         <v>211</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2771,13 +2768,13 @@
         <v>3242</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="F32" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="F32" s="7" t="s">
+      <c r="G32" s="7" t="s">
         <v>214</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>200</v>
       </c>
       <c r="H32" s="7">
         <v>2</v>
@@ -2789,10 +2786,10 @@
         <v>215</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>200</v>
+        <v>214</v>
       </c>
       <c r="M32" s="7">
         <v>5</v>
@@ -2926,13 +2923,13 @@
         <v>282935</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>70</v>
+        <v>228</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="H35" s="7">
         <v>120</v>
@@ -2941,13 +2938,13 @@
         <v>130824</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>230</v>
+        <v>68</v>
       </c>
       <c r="K35" s="7" t="s">
         <v>231</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>232</v>
+        <v>133</v>
       </c>
       <c r="M35" s="7">
         <v>397</v>
@@ -2956,13 +2953,13 @@
         <v>413760</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>62</v>
+        <v>232</v>
       </c>
       <c r="P35" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q35" s="7" t="s">
         <v>233</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -2977,13 +2974,13 @@
         <v>342480</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="F36" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="F36" s="7" t="s">
+      <c r="G36" s="7" t="s">
         <v>236</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>237</v>
       </c>
       <c r="H36" s="7">
         <v>127</v>
@@ -2992,13 +2989,13 @@
         <v>130898</v>
       </c>
       <c r="J36" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="K36" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="K36" s="7" t="s">
+      <c r="L36" s="7" t="s">
         <v>239</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>240</v>
       </c>
       <c r="M36" s="7">
         <v>459</v>
@@ -3007,13 +3004,13 @@
         <v>473378</v>
       </c>
       <c r="O36" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="P36" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="P36" s="7" t="s">
+      <c r="Q36" s="7" t="s">
         <v>242</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3028,13 +3025,13 @@
         <v>707513</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="F37" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="F37" s="7" t="s">
+      <c r="G37" s="7" t="s">
         <v>245</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>246</v>
       </c>
       <c r="H37" s="7">
         <v>493</v>
@@ -3043,13 +3040,13 @@
         <v>506843</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="K37" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="K37" s="7" t="s">
+      <c r="L37" s="7" t="s">
         <v>248</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>249</v>
       </c>
       <c r="M37" s="7">
         <v>1165</v>
@@ -3058,13 +3055,13 @@
         <v>1214356</v>
       </c>
       <c r="O37" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="P37" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="P37" s="7" t="s">
+      <c r="Q37" s="7" t="s">
         <v>251</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3120,7 +3117,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P6516-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P6516-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1AB1AE09-D1C0-43D9-8091-77DEDC83F8DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6880891B-B840-4AA2-B75C-B3511CD4BA95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{ED674592-B76D-49D9-AA57-CA97D917970E}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{D49494F1-4545-4634-BD10-CB1CBE035966}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="258">
   <si>
     <t>Población según tener que relacionarse con gente que no son compañeros durante las tareas de su trabajo en 2007 (Tasa respuesta: 43,05%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>46,38%</t>
   </si>
   <si>
-    <t>39,21%</t>
-  </si>
-  <si>
-    <t>54,14%</t>
+    <t>38,83%</t>
+  </si>
+  <si>
+    <t>54,38%</t>
   </si>
   <si>
     <t>17,52%</t>
   </si>
   <si>
-    <t>11,47%</t>
-  </si>
-  <si>
-    <t>24,66%</t>
+    <t>11,85%</t>
+  </si>
+  <si>
+    <t>24,73%</t>
   </si>
   <si>
     <t>33,58%</t>
   </si>
   <si>
-    <t>28,55%</t>
-  </si>
-  <si>
-    <t>39,24%</t>
+    <t>28,93%</t>
+  </si>
+  <si>
+    <t>38,94%</t>
   </si>
   <si>
     <t>Algunas veces</t>
@@ -107,25 +107,25 @@
     <t>6,74%</t>
   </si>
   <si>
-    <t>15,96%</t>
+    <t>15,63%</t>
   </si>
   <si>
     <t>11,78%</t>
   </si>
   <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>18,62%</t>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>17,91%</t>
   </si>
   <si>
     <t>11,08%</t>
   </si>
   <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>15,02%</t>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>14,99%</t>
   </si>
   <si>
     <t>Muchas veces</t>
@@ -134,28 +134,28 @@
     <t>13,16%</t>
   </si>
   <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>18,87%</t>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>18,83%</t>
   </si>
   <si>
     <t>6,87%</t>
   </si>
   <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>11,85%</t>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>11,98%</t>
   </si>
   <si>
     <t>10,37%</t>
   </si>
   <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>14,58%</t>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>14,45%</t>
   </si>
   <si>
     <t>Siempre</t>
@@ -164,28 +164,28 @@
     <t>29,95%</t>
   </si>
   <si>
-    <t>23,4%</t>
-  </si>
-  <si>
-    <t>37,25%</t>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>37,67%</t>
   </si>
   <si>
     <t>63,83%</t>
   </si>
   <si>
-    <t>55,82%</t>
-  </si>
-  <si>
-    <t>72,02%</t>
+    <t>55,19%</t>
+  </si>
+  <si>
+    <t>71,84%</t>
   </si>
   <si>
     <t>44,98%</t>
   </si>
   <si>
-    <t>39,74%</t>
-  </si>
-  <si>
-    <t>50,37%</t>
+    <t>39,3%</t>
+  </si>
+  <si>
+    <t>50,02%</t>
   </si>
   <si>
     <t>100%</t>
@@ -197,601 +197,616 @@
     <t>28,04%</t>
   </si>
   <si>
-    <t>23,77%</t>
-  </si>
-  <si>
-    <t>31,88%</t>
+    <t>24,41%</t>
+  </si>
+  <si>
+    <t>32,02%</t>
   </si>
   <si>
     <t>25,86%</t>
   </si>
   <si>
-    <t>21,52%</t>
-  </si>
-  <si>
-    <t>31,04%</t>
+    <t>20,72%</t>
+  </si>
+  <si>
+    <t>30,61%</t>
   </si>
   <si>
     <t>27,21%</t>
   </si>
   <si>
-    <t>24,41%</t>
-  </si>
-  <si>
-    <t>30,26%</t>
+    <t>24,35%</t>
+  </si>
+  <si>
+    <t>30,47%</t>
   </si>
   <si>
     <t>17,15%</t>
   </si>
   <si>
-    <t>13,79%</t>
-  </si>
-  <si>
-    <t>20,42%</t>
+    <t>14,12%</t>
+  </si>
+  <si>
+    <t>20,75%</t>
   </si>
   <si>
     <t>11,66%</t>
   </si>
   <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>15,77%</t>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>15,54%</t>
   </si>
   <si>
     <t>15,06%</t>
   </si>
   <si>
+    <t>12,86%</t>
+  </si>
+  <si>
+    <t>17,62%</t>
+  </si>
+  <si>
+    <t>18,17%</t>
+  </si>
+  <si>
+    <t>21,66%</t>
+  </si>
+  <si>
+    <t>13,37%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>17,63%</t>
+  </si>
+  <si>
+    <t>16,35%</t>
+  </si>
+  <si>
+    <t>14,06%</t>
+  </si>
+  <si>
+    <t>18,94%</t>
+  </si>
+  <si>
+    <t>36,63%</t>
+  </si>
+  <si>
+    <t>32,73%</t>
+  </si>
+  <si>
+    <t>41,18%</t>
+  </si>
+  <si>
+    <t>49,12%</t>
+  </si>
+  <si>
+    <t>42,89%</t>
+  </si>
+  <si>
+    <t>54,24%</t>
+  </si>
+  <si>
+    <t>41,38%</t>
+  </si>
+  <si>
+    <t>38,18%</t>
+  </si>
+  <si>
+    <t>44,71%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>28,95%</t>
+  </si>
+  <si>
+    <t>25,2%</t>
+  </si>
+  <si>
+    <t>32,82%</t>
+  </si>
+  <si>
+    <t>26,78%</t>
+  </si>
+  <si>
+    <t>21,67%</t>
+  </si>
+  <si>
+    <t>32,03%</t>
+  </si>
+  <si>
+    <t>28,19%</t>
+  </si>
+  <si>
+    <t>25,22%</t>
+  </si>
+  <si>
+    <t>31,37%</t>
+  </si>
+  <si>
+    <t>12,41%</t>
+  </si>
+  <si>
+    <t>9,97%</t>
+  </si>
+  <si>
+    <t>15,2%</t>
+  </si>
+  <si>
+    <t>13,72%</t>
+  </si>
+  <si>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>18,2%</t>
+  </si>
+  <si>
+    <t>12,87%</t>
+  </si>
+  <si>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>15,52%</t>
+  </si>
+  <si>
+    <t>19,69%</t>
+  </si>
+  <si>
+    <t>16,55%</t>
+  </si>
+  <si>
+    <t>23,28%</t>
+  </si>
+  <si>
+    <t>13,84%</t>
+  </si>
+  <si>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>18,01%</t>
+  </si>
+  <si>
+    <t>17,65%</t>
+  </si>
+  <si>
+    <t>15,22%</t>
+  </si>
+  <si>
+    <t>20,39%</t>
+  </si>
+  <si>
+    <t>38,96%</t>
+  </si>
+  <si>
+    <t>34,88%</t>
+  </si>
+  <si>
+    <t>43,64%</t>
+  </si>
+  <si>
+    <t>45,66%</t>
+  </si>
+  <si>
+    <t>39,38%</t>
+  </si>
+  <si>
+    <t>50,71%</t>
+  </si>
+  <si>
+    <t>41,3%</t>
+  </si>
+  <si>
+    <t>37,71%</t>
+  </si>
+  <si>
+    <t>44,69%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>29,82%</t>
+  </si>
+  <si>
+    <t>25,27%</t>
+  </si>
+  <si>
+    <t>34,28%</t>
+  </si>
+  <si>
+    <t>28,17%</t>
+  </si>
+  <si>
+    <t>21,36%</t>
+  </si>
+  <si>
+    <t>36,51%</t>
+  </si>
+  <si>
+    <t>29,36%</t>
+  </si>
+  <si>
+    <t>25,69%</t>
+  </si>
+  <si>
+    <t>33,02%</t>
+  </si>
+  <si>
+    <t>15,11%</t>
+  </si>
+  <si>
+    <t>11,94%</t>
+  </si>
+  <si>
+    <t>18,9%</t>
+  </si>
+  <si>
+    <t>14,29%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>20,96%</t>
+  </si>
+  <si>
+    <t>14,88%</t>
+  </si>
+  <si>
+    <t>12,2%</t>
+  </si>
+  <si>
+    <t>18,09%</t>
+  </si>
+  <si>
+    <t>17,42%</t>
+  </si>
+  <si>
+    <t>14,04%</t>
+  </si>
+  <si>
+    <t>21,57%</t>
+  </si>
+  <si>
+    <t>15,97%</t>
+  </si>
+  <si>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>21,74%</t>
+  </si>
+  <si>
+    <t>17,02%</t>
+  </si>
+  <si>
+    <t>14,01%</t>
+  </si>
+  <si>
+    <t>20,08%</t>
+  </si>
+  <si>
+    <t>37,65%</t>
+  </si>
+  <si>
+    <t>33,56%</t>
+  </si>
+  <si>
+    <t>42,31%</t>
+  </si>
+  <si>
+    <t>41,56%</t>
+  </si>
+  <si>
+    <t>33,65%</t>
+  </si>
+  <si>
+    <t>48,99%</t>
+  </si>
+  <si>
+    <t>38,74%</t>
+  </si>
+  <si>
+    <t>34,81%</t>
+  </si>
+  <si>
+    <t>42,73%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>24,05%</t>
+  </si>
+  <si>
+    <t>18,34%</t>
+  </si>
+  <si>
+    <t>31,49%</t>
+  </si>
+  <si>
+    <t>18,36%</t>
+  </si>
+  <si>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>30,74%</t>
+  </si>
+  <si>
+    <t>22,45%</t>
+  </si>
+  <si>
+    <t>17,45%</t>
+  </si>
+  <si>
+    <t>28,57%</t>
+  </si>
+  <si>
+    <t>19,95%</t>
+  </si>
+  <si>
+    <t>13,87%</t>
+  </si>
+  <si>
+    <t>26,98%</t>
+  </si>
+  <si>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>23,69%</t>
+  </si>
+  <si>
+    <t>18,05%</t>
+  </si>
+  <si>
+    <t>13,35%</t>
+  </si>
+  <si>
+    <t>23,26%</t>
+  </si>
+  <si>
+    <t>17,96%</t>
+  </si>
+  <si>
+    <t>12,52%</t>
+  </si>
+  <si>
+    <t>24,47%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>19,99%</t>
+  </si>
+  <si>
+    <t>15,38%</t>
+  </si>
+  <si>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>20,76%</t>
+  </si>
+  <si>
+    <t>38,03%</t>
+  </si>
+  <si>
+    <t>30,81%</t>
+  </si>
+  <si>
+    <t>46,22%</t>
+  </si>
+  <si>
+    <t>59,6%</t>
+  </si>
+  <si>
+    <t>46,84%</t>
+  </si>
+  <si>
+    <t>71,96%</t>
+  </si>
+  <si>
+    <t>44,12%</t>
+  </si>
+  <si>
+    <t>37,94%</t>
+  </si>
+  <si>
+    <t>50,95%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>16,3%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>67,35%</t>
+  </si>
+  <si>
+    <t>27,11%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>20,82%</t>
+  </si>
+  <si>
+    <t>57,2%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>19,35%</t>
+  </si>
+  <si>
+    <t>82,65%</t>
+  </si>
+  <si>
+    <t>21,97%</t>
+  </si>
+  <si>
+    <t>72,7%</t>
+  </si>
+  <si>
+    <t>20,45%</t>
+  </si>
+  <si>
+    <t>56,1%</t>
+  </si>
+  <si>
+    <t>64,35%</t>
+  </si>
+  <si>
+    <t>17,56%</t>
+  </si>
+  <si>
+    <t>50,91%</t>
+  </si>
+  <si>
+    <t>58,73%</t>
+  </si>
+  <si>
+    <t>23,12%</t>
+  </si>
+  <si>
+    <t>90,51%</t>
+  </si>
+  <si>
+    <t>30,05%</t>
+  </si>
+  <si>
+    <t>27,97%</t>
+  </si>
+  <si>
+    <t>32,2%</t>
+  </si>
+  <si>
+    <t>24,9%</t>
+  </si>
+  <si>
+    <t>22,11%</t>
+  </si>
+  <si>
+    <t>27,79%</t>
+  </si>
+  <si>
+    <t>28,25%</t>
+  </si>
+  <si>
+    <t>26,51%</t>
+  </si>
+  <si>
+    <t>30,1%</t>
+  </si>
+  <si>
+    <t>14,85%</t>
+  </si>
+  <si>
+    <t>13,39%</t>
+  </si>
+  <si>
+    <t>16,69%</t>
+  </si>
+  <si>
     <t>12,78%</t>
   </si>
   <si>
-    <t>17,32%</t>
-  </si>
-  <si>
-    <t>18,17%</t>
-  </si>
-  <si>
-    <t>14,89%</t>
-  </si>
-  <si>
-    <t>21,68%</t>
-  </si>
-  <si>
-    <t>13,37%</t>
-  </si>
-  <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>16,35%</t>
-  </si>
-  <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>18,91%</t>
-  </si>
-  <si>
-    <t>36,63%</t>
-  </si>
-  <si>
-    <t>32,83%</t>
-  </si>
-  <si>
-    <t>41,59%</t>
-  </si>
-  <si>
-    <t>49,12%</t>
-  </si>
-  <si>
-    <t>43,62%</t>
-  </si>
-  <si>
-    <t>54,29%</t>
-  </si>
-  <si>
-    <t>41,38%</t>
-  </si>
-  <si>
-    <t>38,08%</t>
-  </si>
-  <si>
-    <t>44,72%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>28,95%</t>
-  </si>
-  <si>
-    <t>25,24%</t>
-  </si>
-  <si>
-    <t>33,11%</t>
-  </si>
-  <si>
-    <t>26,78%</t>
-  </si>
-  <si>
-    <t>21,62%</t>
-  </si>
-  <si>
-    <t>32,18%</t>
-  </si>
-  <si>
-    <t>28,19%</t>
-  </si>
-  <si>
-    <t>25,06%</t>
-  </si>
-  <si>
-    <t>31,47%</t>
-  </si>
-  <si>
-    <t>12,41%</t>
-  </si>
-  <si>
-    <t>9,7%</t>
-  </si>
-  <si>
-    <t>15,2%</t>
-  </si>
-  <si>
-    <t>13,72%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>18,23%</t>
-  </si>
-  <si>
-    <t>12,87%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>15,44%</t>
-  </si>
-  <si>
-    <t>19,69%</t>
-  </si>
-  <si>
-    <t>16,5%</t>
-  </si>
-  <si>
-    <t>23,12%</t>
-  </si>
-  <si>
-    <t>13,84%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>17,65%</t>
-  </si>
-  <si>
-    <t>14,95%</t>
-  </si>
-  <si>
-    <t>20,19%</t>
-  </si>
-  <si>
-    <t>38,96%</t>
-  </si>
-  <si>
-    <t>34,5%</t>
-  </si>
-  <si>
-    <t>42,8%</t>
-  </si>
-  <si>
-    <t>45,66%</t>
-  </si>
-  <si>
-    <t>39,08%</t>
-  </si>
-  <si>
-    <t>51,12%</t>
-  </si>
-  <si>
-    <t>41,3%</t>
-  </si>
-  <si>
-    <t>37,8%</t>
-  </si>
-  <si>
-    <t>44,59%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>29,82%</t>
-  </si>
-  <si>
-    <t>25,63%</t>
-  </si>
-  <si>
-    <t>34,76%</t>
-  </si>
-  <si>
-    <t>28,17%</t>
-  </si>
-  <si>
-    <t>21,7%</t>
-  </si>
-  <si>
-    <t>35,71%</t>
-  </si>
-  <si>
-    <t>29,36%</t>
-  </si>
-  <si>
-    <t>25,59%</t>
-  </si>
-  <si>
-    <t>33,63%</t>
-  </si>
-  <si>
-    <t>15,11%</t>
-  </si>
-  <si>
-    <t>11,69%</t>
-  </si>
-  <si>
-    <t>18,9%</t>
-  </si>
-  <si>
-    <t>14,29%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>20,73%</t>
-  </si>
-  <si>
-    <t>14,88%</t>
-  </si>
-  <si>
-    <t>12,24%</t>
-  </si>
-  <si>
-    <t>17,42%</t>
-  </si>
-  <si>
-    <t>13,75%</t>
-  </si>
-  <si>
-    <t>21,38%</t>
-  </si>
-  <si>
-    <t>15,97%</t>
-  </si>
-  <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>22,41%</t>
-  </si>
-  <si>
-    <t>17,02%</t>
-  </si>
-  <si>
-    <t>14,24%</t>
-  </si>
-  <si>
-    <t>20,5%</t>
-  </si>
-  <si>
-    <t>37,65%</t>
-  </si>
-  <si>
-    <t>33,16%</t>
-  </si>
-  <si>
-    <t>42,34%</t>
-  </si>
-  <si>
-    <t>41,56%</t>
-  </si>
-  <si>
-    <t>49,24%</t>
-  </si>
-  <si>
-    <t>38,74%</t>
-  </si>
-  <si>
-    <t>34,66%</t>
-  </si>
-  <si>
-    <t>43,26%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>24,05%</t>
-  </si>
-  <si>
-    <t>17,71%</t>
-  </si>
-  <si>
-    <t>30,54%</t>
-  </si>
-  <si>
-    <t>18,36%</t>
-  </si>
-  <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>30,23%</t>
-  </si>
-  <si>
-    <t>22,45%</t>
-  </si>
-  <si>
-    <t>17,33%</t>
-  </si>
-  <si>
-    <t>28,79%</t>
-  </si>
-  <si>
-    <t>19,95%</t>
-  </si>
-  <si>
-    <t>14,28%</t>
-  </si>
-  <si>
-    <t>26,53%</t>
-  </si>
-  <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>24,14%</t>
-  </si>
-  <si>
-    <t>18,05%</t>
-  </si>
-  <si>
-    <t>13,33%</t>
-  </si>
-  <si>
-    <t>23,49%</t>
-  </si>
-  <si>
-    <t>17,96%</t>
-  </si>
-  <si>
-    <t>12,98%</t>
-  </si>
-  <si>
-    <t>24,44%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>18,31%</t>
-  </si>
-  <si>
-    <t>15,38%</t>
-  </si>
-  <si>
-    <t>11,4%</t>
-  </si>
-  <si>
-    <t>38,03%</t>
-  </si>
-  <si>
-    <t>30,59%</t>
-  </si>
-  <si>
-    <t>46,22%</t>
-  </si>
-  <si>
-    <t>59,6%</t>
-  </si>
-  <si>
-    <t>46,72%</t>
-  </si>
-  <si>
-    <t>70,84%</t>
-  </si>
-  <si>
-    <t>44,12%</t>
-  </si>
-  <si>
-    <t>37,59%</t>
-  </si>
-  <si>
-    <t>50,24%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>16,3%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>67,35%</t>
-  </si>
-  <si>
-    <t>27,11%</t>
-  </si>
-  <si>
-    <t>78,73%</t>
-  </si>
-  <si>
-    <t>20,82%</t>
-  </si>
-  <si>
-    <t>57,44%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>19,35%</t>
-  </si>
-  <si>
-    <t>74,1%</t>
-  </si>
-  <si>
-    <t>21,97%</t>
-  </si>
-  <si>
-    <t>72,7%</t>
-  </si>
-  <si>
-    <t>20,45%</t>
-  </si>
-  <si>
-    <t>55,14%</t>
-  </si>
-  <si>
-    <t>64,35%</t>
-  </si>
-  <si>
-    <t>18,44%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>50,91%</t>
-  </si>
-  <si>
-    <t>58,73%</t>
-  </si>
-  <si>
-    <t>22,02%</t>
-  </si>
-  <si>
-    <t>88,68%</t>
-  </si>
-  <si>
-    <t>30,05%</t>
-  </si>
-  <si>
-    <t>27,8%</t>
-  </si>
-  <si>
-    <t>32,12%</t>
-  </si>
-  <si>
-    <t>24,9%</t>
-  </si>
-  <si>
-    <t>21,95%</t>
-  </si>
-  <si>
-    <t>27,43%</t>
-  </si>
-  <si>
-    <t>28,25%</t>
-  </si>
-  <si>
-    <t>26,59%</t>
-  </si>
-  <si>
-    <t>29,98%</t>
-  </si>
-  <si>
-    <t>14,85%</t>
-  </si>
-  <si>
-    <t>13,4%</t>
-  </si>
-  <si>
-    <t>16,64%</t>
-  </si>
-  <si>
-    <t>10,87%</t>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>15,14%</t>
   </si>
   <si>
     <t>14,13%</t>
   </si>
   <si>
-    <t>15,48%</t>
+    <t>12,9%</t>
+  </si>
+  <si>
+    <t>15,56%</t>
   </si>
   <si>
     <t>17,97%</t>
   </si>
   <si>
-    <t>16,23%</t>
-  </si>
-  <si>
-    <t>19,85%</t>
+    <t>16,15%</t>
+  </si>
+  <si>
+    <t>19,88%</t>
   </si>
   <si>
     <t>12,79%</t>
   </si>
   <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>15,08%</t>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>14,9%</t>
   </si>
   <si>
     <t>16,16%</t>
   </si>
   <si>
-    <t>14,81%</t>
-  </si>
-  <si>
-    <t>17,54%</t>
+    <t>17,7%</t>
   </si>
   <si>
     <t>37,13%</t>
   </si>
   <si>
-    <t>34,74%</t>
-  </si>
-  <si>
-    <t>39,29%</t>
+    <t>34,9%</t>
+  </si>
+  <si>
+    <t>39,33%</t>
   </si>
   <si>
     <t>49,52%</t>
   </si>
   <si>
-    <t>46,29%</t>
-  </si>
-  <si>
-    <t>52,64%</t>
+    <t>46,47%</t>
+  </si>
+  <si>
+    <t>52,87%</t>
   </si>
   <si>
     <t>41,46%</t>
   </si>
   <si>
-    <t>39,69%</t>
-  </si>
-  <si>
-    <t>43,35%</t>
+    <t>39,76%</t>
+  </si>
+  <si>
+    <t>43,21%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1206,7 +1221,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9044F879-1937-4D13-A473-70B211952FCD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F8182D8-0026-47D8-80CF-A4AC67738A38}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1692,10 +1707,10 @@
         <v>70</v>
       </c>
       <c r="F11" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="H11" s="7">
         <v>43</v>
@@ -1704,13 +1719,13 @@
         <v>45509</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>69</v>
       </c>
       <c r="M11" s="7">
         <v>139</v>
@@ -1967,7 +1982,7 @@
         <v>110</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>26</v>
+        <v>111</v>
       </c>
       <c r="M16" s="7">
         <v>152</v>
@@ -1976,13 +1991,13 @@
         <v>153923</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1997,13 +2012,13 @@
         <v>221114</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H17" s="7">
         <v>132</v>
@@ -2012,13 +2027,13 @@
         <v>139046</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="M17" s="7">
         <v>340</v>
@@ -2027,13 +2042,13 @@
         <v>360160</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2089,7 +2104,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2101,13 +2116,13 @@
         <v>130383</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H19" s="7">
         <v>46</v>
@@ -2116,13 +2131,13 @@
         <v>47821</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M19" s="7">
         <v>166</v>
@@ -2131,13 +2146,13 @@
         <v>178205</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2152,13 +2167,13 @@
         <v>66065</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H20" s="7">
         <v>22</v>
@@ -2167,13 +2182,13 @@
         <v>24262</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M20" s="7">
         <v>84</v>
@@ -2182,13 +2197,13 @@
         <v>90326</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>70</v>
+        <v>142</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2203,13 +2218,13 @@
         <v>76186</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="H21" s="7">
         <v>27</v>
@@ -2218,13 +2233,13 @@
         <v>27102</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="M21" s="7">
         <v>97</v>
@@ -2233,13 +2248,13 @@
         <v>103288</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2254,13 +2269,13 @@
         <v>164626</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="H22" s="7">
         <v>67</v>
@@ -2269,13 +2284,13 @@
         <v>70548</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>132</v>
+        <v>156</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="M22" s="7">
         <v>222</v>
@@ -2284,13 +2299,13 @@
         <v>235174</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2346,7 +2361,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2358,13 +2373,13 @@
         <v>39297</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="H24" s="7">
         <v>12</v>
@@ -2373,13 +2388,13 @@
         <v>11805</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="M24" s="7">
         <v>51</v>
@@ -2388,13 +2403,13 @@
         <v>51103</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2409,13 +2424,13 @@
         <v>32589</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="H25" s="7">
         <v>8</v>
@@ -2424,13 +2439,13 @@
         <v>8501</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="M25" s="7">
         <v>41</v>
@@ -2439,13 +2454,13 @@
         <v>41089</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2460,13 +2475,13 @@
         <v>29347</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="H26" s="7">
         <v>5</v>
@@ -2475,13 +2490,13 @@
         <v>5663</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="M26" s="7">
         <v>36</v>
@@ -2490,13 +2505,13 @@
         <v>35009</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>149</v>
+        <v>188</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2511,13 +2526,13 @@
         <v>62135</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="H27" s="7">
         <v>37</v>
@@ -2526,13 +2541,13 @@
         <v>38315</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="M27" s="7">
         <v>100</v>
@@ -2541,13 +2556,13 @@
         <v>100450</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2603,7 +2618,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>10</v>
@@ -2615,13 +2630,13 @@
         <v>821</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="H29" s="7">
         <v>1</v>
@@ -2630,13 +2645,13 @@
         <v>982</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="M29" s="7">
         <v>2</v>
@@ -2645,13 +2660,13 @@
         <v>1803</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="P29" s="7" t="s">
-        <v>196</v>
-      </c>
       <c r="Q29" s="7" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2666,13 +2681,13 @@
         <v>0</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="H30" s="7">
         <v>0</v>
@@ -2681,13 +2696,13 @@
         <v>0</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="M30" s="7">
         <v>0</v>
@@ -2696,13 +2711,13 @@
         <v>0</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2717,13 +2732,13 @@
         <v>975</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="H31" s="7">
         <v>1</v>
@@ -2732,13 +2747,13 @@
         <v>796</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="M31" s="7">
         <v>2</v>
@@ -2747,13 +2762,13 @@
         <v>1771</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2768,13 +2783,13 @@
         <v>3242</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="H32" s="7">
         <v>2</v>
@@ -2783,13 +2798,13 @@
         <v>1844</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="M32" s="7">
         <v>5</v>
@@ -2798,13 +2813,13 @@
         <v>5085</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2872,13 +2887,13 @@
         <v>572486</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="H34" s="7">
         <v>239</v>
@@ -2887,13 +2902,13 @@
         <v>254878</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="M34" s="7">
         <v>782</v>
@@ -2902,13 +2917,13 @@
         <v>827363</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2923,13 +2938,13 @@
         <v>282935</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="H35" s="7">
         <v>120</v>
@@ -2938,13 +2953,13 @@
         <v>130824</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>68</v>
+        <v>234</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>133</v>
+        <v>236</v>
       </c>
       <c r="M35" s="7">
         <v>397</v>
@@ -2953,13 +2968,13 @@
         <v>413760</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>103</v>
+        <v>238</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -2974,13 +2989,13 @@
         <v>342480</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="H36" s="7">
         <v>127</v>
@@ -2989,13 +3004,13 @@
         <v>130898</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="M36" s="7">
         <v>459</v>
@@ -3004,13 +3019,13 @@
         <v>473378</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>241</v>
+        <v>140</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3025,13 +3040,13 @@
         <v>707513</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="H37" s="7">
         <v>493</v>
@@ -3040,13 +3055,13 @@
         <v>506843</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="M37" s="7">
         <v>1165</v>
@@ -3055,13 +3070,13 @@
         <v>1214356</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3117,7 +3132,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P6516-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P6516-Edad-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6880891B-B840-4AA2-B75C-B3511CD4BA95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CD407767-8FBA-449F-B372-864B98420BE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{D49494F1-4545-4634-BD10-CB1CBE035966}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{85448250-C3A7-4F4A-A33F-C7B2B7BBAAA6}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="258">
   <si>
     <t>Población según tener que relacionarse con gente que no son compañeros durante las tareas de su trabajo en 2007 (Tasa respuesta: 43,05%)</t>
   </si>
@@ -65,7 +65,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Nunca</t>
@@ -191,7 +191,7 @@
     <t>100%</t>
   </si>
   <si>
-    <t>25/34</t>
+    <t>25-34</t>
   </si>
   <si>
     <t>28,04%</t>
@@ -299,7 +299,7 @@
     <t>44,71%</t>
   </si>
   <si>
-    <t>35/44</t>
+    <t>35-44</t>
   </si>
   <si>
     <t>28,95%</t>
@@ -410,7 +410,7 @@
     <t>44,69%</t>
   </si>
   <si>
-    <t>45/54</t>
+    <t>45-54</t>
   </si>
   <si>
     <t>29,82%</t>
@@ -521,7 +521,7 @@
     <t>42,73%</t>
   </si>
   <si>
-    <t>55/64</t>
+    <t>55-64</t>
   </si>
   <si>
     <t>24,05%</t>
@@ -632,16 +632,16 @@
     <t>50,95%</t>
   </si>
   <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>16,3%</t>
+    <t>65-74</t>
   </si>
   <si>
     <t>0,0%</t>
   </si>
   <si>
-    <t>67,35%</t>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>56,93%</t>
   </si>
   <si>
     <t>27,11%</t>
@@ -650,28 +650,19 @@
     <t>100,0%</t>
   </si>
   <si>
-    <t>20,82%</t>
-  </si>
-  <si>
-    <t>57,2%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
+    <t>15,86%</t>
+  </si>
+  <si>
+    <t>62,03%</t>
   </si>
   <si>
     <t>36,25%</t>
   </si>
   <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>19,35%</t>
-  </si>
-  <si>
-    <t>82,65%</t>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>37,97%</t>
   </si>
   <si>
     <t>21,97%</t>
@@ -680,28 +671,37 @@
     <t>72,7%</t>
   </si>
   <si>
-    <t>20,45%</t>
-  </si>
-  <si>
-    <t>56,1%</t>
-  </si>
-  <si>
-    <t>64,35%</t>
-  </si>
-  <si>
-    <t>17,56%</t>
+    <t>28,61%</t>
+  </si>
+  <si>
+    <t>81,54%</t>
   </si>
   <si>
     <t>50,91%</t>
   </si>
   <si>
-    <t>58,73%</t>
-  </si>
-  <si>
-    <t>23,12%</t>
-  </si>
-  <si>
-    <t>90,51%</t>
+    <t>55,52%</t>
+  </si>
+  <si>
+    <t>15,49%</t>
+  </si>
+  <si>
+    <t>88,23%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>33,24%</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>66,76%</t>
   </si>
   <si>
     <t>30,05%</t>
@@ -1221,8 +1221,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F8182D8-0026-47D8-80CF-A4AC67738A38}">
-  <dimension ref="A1:Q39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED7F5774-05E8-469F-9919-0788327A67E5}">
+  <dimension ref="A1:Q44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2624,10 +2624,10 @@
         <v>10</v>
       </c>
       <c r="C29" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D29" s="7">
-        <v>821</v>
+        <v>0</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>199</v>
@@ -2648,22 +2648,22 @@
         <v>202</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="L29" s="7" t="s">
         <v>203</v>
       </c>
       <c r="M29" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N29" s="7">
-        <v>1803</v>
+        <v>982</v>
       </c>
       <c r="O29" s="7" t="s">
         <v>204</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="Q29" s="7" t="s">
         <v>205</v>
@@ -2681,13 +2681,13 @@
         <v>0</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="F30" s="7" t="s">
-        <v>206</v>
-      </c>
       <c r="G30" s="7" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="H30" s="7">
         <v>0</v>
@@ -2696,13 +2696,13 @@
         <v>0</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="K30" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>208</v>
       </c>
       <c r="M30" s="7">
         <v>0</v>
@@ -2711,13 +2711,13 @@
         <v>0</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="P30" s="7" t="s">
-        <v>206</v>
-      </c>
       <c r="Q30" s="7" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2732,13 +2732,13 @@
         <v>975</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="H31" s="7">
         <v>1</v>
@@ -2747,13 +2747,13 @@
         <v>796</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="M31" s="7">
         <v>2</v>
@@ -2762,13 +2762,13 @@
         <v>1771</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2777,16 +2777,16 @@
         <v>40</v>
       </c>
       <c r="C32" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D32" s="7">
-        <v>3242</v>
+        <v>1593</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>217</v>
+        <v>199</v>
       </c>
       <c r="G32" s="7" t="s">
         <v>203</v>
@@ -2798,28 +2798,28 @@
         <v>1844</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="L32" s="7" t="s">
         <v>203</v>
       </c>
       <c r="M32" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N32" s="7">
-        <v>5085</v>
+        <v>3436</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2828,10 +2828,10 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D33" s="7">
-        <v>5038</v>
+        <v>2568</v>
       </c>
       <c r="E33" s="7" t="s">
         <v>50</v>
@@ -2858,10 +2858,10 @@
         <v>50</v>
       </c>
       <c r="M33" s="7">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="N33" s="7">
-        <v>8659</v>
+        <v>6188</v>
       </c>
       <c r="O33" s="7" t="s">
         <v>50</v>
@@ -2875,55 +2875,53 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>3</v>
+        <v>217</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C34" s="7">
-        <v>543</v>
+        <v>1</v>
       </c>
       <c r="D34" s="7">
-        <v>572486</v>
+        <v>821</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>223</v>
+        <v>199</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>224</v>
+        <v>203</v>
       </c>
       <c r="H34" s="7">
-        <v>239</v>
-      </c>
-      <c r="I34" s="7">
-        <v>254878</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I34" s="7"/>
       <c r="J34" s="7" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="M34" s="7">
-        <v>782</v>
+        <v>1</v>
       </c>
       <c r="N34" s="7">
-        <v>827363</v>
+        <v>821</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>229</v>
+        <v>199</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>230</v>
+        <v>203</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2932,49 +2930,47 @@
         <v>20</v>
       </c>
       <c r="C35" s="7">
-        <v>277</v>
+        <v>0</v>
       </c>
       <c r="D35" s="7">
-        <v>282935</v>
+        <v>0</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>231</v>
+        <v>199</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>232</v>
+        <v>200</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>233</v>
+        <v>220</v>
       </c>
       <c r="H35" s="7">
-        <v>120</v>
-      </c>
-      <c r="I35" s="7">
-        <v>130824</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I35" s="7"/>
       <c r="J35" s="7" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>235</v>
+        <v>219</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>236</v>
+        <v>219</v>
       </c>
       <c r="M35" s="7">
-        <v>397</v>
+        <v>0</v>
       </c>
       <c r="N35" s="7">
-        <v>413760</v>
+        <v>0</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>237</v>
+        <v>199</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>238</v>
+        <v>200</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>239</v>
+        <v>220</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -2983,49 +2979,47 @@
         <v>30</v>
       </c>
       <c r="C36" s="7">
-        <v>332</v>
+        <v>0</v>
       </c>
       <c r="D36" s="7">
-        <v>342480</v>
+        <v>0</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>240</v>
+        <v>199</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>241</v>
+        <v>200</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>242</v>
+        <v>220</v>
       </c>
       <c r="H36" s="7">
-        <v>127</v>
-      </c>
-      <c r="I36" s="7">
-        <v>130898</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I36" s="7"/>
       <c r="J36" s="7" t="s">
-        <v>243</v>
+        <v>219</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>244</v>
+        <v>219</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>245</v>
+        <v>219</v>
       </c>
       <c r="M36" s="7">
-        <v>459</v>
+        <v>0</v>
       </c>
       <c r="N36" s="7">
-        <v>473378</v>
+        <v>0</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>246</v>
+        <v>199</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>140</v>
+        <v>200</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>247</v>
+        <v>220</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3034,49 +3028,47 @@
         <v>40</v>
       </c>
       <c r="C37" s="7">
-        <v>672</v>
+        <v>2</v>
       </c>
       <c r="D37" s="7">
-        <v>707513</v>
+        <v>1650</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>248</v>
+        <v>221</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>249</v>
+        <v>199</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>250</v>
+        <v>203</v>
       </c>
       <c r="H37" s="7">
-        <v>493</v>
-      </c>
-      <c r="I37" s="7">
-        <v>506843</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I37" s="7"/>
       <c r="J37" s="7" t="s">
-        <v>251</v>
+        <v>219</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>252</v>
+        <v>219</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>253</v>
+        <v>219</v>
       </c>
       <c r="M37" s="7">
-        <v>1165</v>
+        <v>2</v>
       </c>
       <c r="N37" s="7">
-        <v>1214356</v>
+        <v>1650</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>254</v>
+        <v>221</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>255</v>
+        <v>199</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>256</v>
+        <v>203</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3085,63 +3077,319 @@
         <v>3</v>
       </c>
       <c r="C38" s="7">
+        <v>3</v>
+      </c>
+      <c r="D38" s="7">
+        <v>2471</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H38" s="7">
+        <v>0</v>
+      </c>
+      <c r="I38" s="7"/>
+      <c r="J38" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="K38" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="L38" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="M38" s="7">
+        <v>3</v>
+      </c>
+      <c r="N38" s="7">
+        <v>2471</v>
+      </c>
+      <c r="O38" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="P38" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q38" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C39" s="7">
+        <v>543</v>
+      </c>
+      <c r="D39" s="7">
+        <v>572486</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="G39" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="H39" s="7">
+        <v>239</v>
+      </c>
+      <c r="I39" s="7">
+        <v>254878</v>
+      </c>
+      <c r="J39" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="K39" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="L39" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="M39" s="7">
+        <v>782</v>
+      </c>
+      <c r="N39" s="7">
+        <v>827363</v>
+      </c>
+      <c r="O39" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="P39" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q39" s="7" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A40" s="1"/>
+      <c r="B40" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C40" s="7">
+        <v>277</v>
+      </c>
+      <c r="D40" s="7">
+        <v>282935</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="G40" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="H40" s="7">
+        <v>120</v>
+      </c>
+      <c r="I40" s="7">
+        <v>130824</v>
+      </c>
+      <c r="J40" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="K40" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="L40" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="M40" s="7">
+        <v>397</v>
+      </c>
+      <c r="N40" s="7">
+        <v>413760</v>
+      </c>
+      <c r="O40" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="P40" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="Q40" s="7" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A41" s="1"/>
+      <c r="B41" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C41" s="7">
+        <v>332</v>
+      </c>
+      <c r="D41" s="7">
+        <v>342480</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="G41" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="H41" s="7">
+        <v>127</v>
+      </c>
+      <c r="I41" s="7">
+        <v>130898</v>
+      </c>
+      <c r="J41" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="K41" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="L41" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="M41" s="7">
+        <v>459</v>
+      </c>
+      <c r="N41" s="7">
+        <v>473378</v>
+      </c>
+      <c r="O41" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="P41" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q41" s="7" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A42" s="1"/>
+      <c r="B42" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42" s="7">
+        <v>672</v>
+      </c>
+      <c r="D42" s="7">
+        <v>707513</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="G42" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="H42" s="7">
+        <v>493</v>
+      </c>
+      <c r="I42" s="7">
+        <v>506843</v>
+      </c>
+      <c r="J42" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="K42" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="L42" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="M42" s="7">
+        <v>1165</v>
+      </c>
+      <c r="N42" s="7">
+        <v>1214356</v>
+      </c>
+      <c r="O42" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="P42" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="Q42" s="7" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A43" s="1"/>
+      <c r="B43" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C43" s="7">
         <v>1824</v>
       </c>
-      <c r="D38" s="7">
+      <c r="D43" s="7">
         <v>1905414</v>
       </c>
-      <c r="E38" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="H38" s="7">
+      <c r="E43" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G43" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H43" s="7">
         <v>979</v>
       </c>
-      <c r="I38" s="7">
+      <c r="I43" s="7">
         <v>1023443</v>
       </c>
-      <c r="J38" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="K38" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="M38" s="7">
+      <c r="J43" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="K43" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="L43" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="M43" s="7">
         <v>2803</v>
       </c>
-      <c r="N38" s="7">
+      <c r="N43" s="7">
         <v>2928857</v>
       </c>
-      <c r="O38" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="P38" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
+      <c r="O43" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="P43" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q43" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
         <v>257</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A14:A18"/>
     <mergeCell ref="A19:A23"/>
     <mergeCell ref="A24:A28"/>
     <mergeCell ref="A29:A33"/>
     <mergeCell ref="A34:A38"/>
+    <mergeCell ref="A39:A43"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
